--- a/Misc/Tips-Troubleshoot.xlsx
+++ b/Misc/Tips-Troubleshoot.xlsx
@@ -17,18 +17,12 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">If internet not working </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -49,18 +43,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>shift + F5/ ctr+shift+r </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -94,17 +82,11 @@
   </si>
   <si>
     <r>
+      <t>sudo</t>
+    </r>
+    <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sudo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="var(--ff-mono)"/>
         <charset val="134"/>
@@ -113,7 +95,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
@@ -122,7 +104,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="var(--ff-mono)"/>
         <charset val="134"/>
@@ -131,7 +113,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
@@ -140,7 +122,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="var(--ff-mono)"/>
         <charset val="134"/>
@@ -149,7 +131,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
@@ -158,7 +140,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="var(--ff-mono)"/>
         <charset val="134"/>
@@ -167,7 +149,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
@@ -176,7 +158,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="var(--ff-mono)"/>
         <charset val="134"/>
@@ -185,7 +167,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
@@ -202,12 +184,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,33 +198,117 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="DejaVu Sans"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,61 +323,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,66 +351,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="var(--ff-mono)"/>
       <charset val="134"/>
@@ -399,187 +388,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,6 +579,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,7 +655,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,53 +663,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,164 +679,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -849,6 +838,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,10 +1161,10 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="44.4" style="1" customWidth="1"/>
     <col min="2" max="2" width="82.0866666666667" style="1" customWidth="1"/>
@@ -1182,7 +1172,7 @@
     <col min="4" max="16384" width="8.72666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" spans="1:2">
+    <row r="1" ht="38.25" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="45" spans="1:2">
+    <row r="7" ht="25.5" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -1264,14 +1254,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:2">
+    <row r="15" ht="14.25" spans="1:2">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
     </row>
